--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -4125,10 +4125,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4137,10 +4137,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6816,10 +6816,10 @@
       <c r="AE6" s="32"/>
     </row>
     <row r="7" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="88"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="23">
         <v>8668782.0985029973</v>
       </c>
@@ -7322,10 +7322,10 @@
       <c r="AD12" s="30"/>
     </row>
     <row r="13" spans="1:31">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="88"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="23">
         <v>6510791.7704719994</v>
       </c>
@@ -7649,10 +7649,10 @@
       <c r="AD18" s="30"/>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="88"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="23">
         <v>75865.021189999999</v>
       </c>
@@ -8007,10 +8007,10 @@
       <c r="AD24" s="30"/>
     </row>
     <row r="25" spans="1:30">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="88"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="23">
         <v>3551943.3316872008</v>
       </c>
@@ -8315,10 +8315,10 @@
       </c>
     </row>
     <row r="31" spans="1:30">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="88"/>
+      <c r="B31" s="84"/>
       <c r="C31" s="23">
         <v>1578519.6418547998</v>
       </c>
@@ -8571,10 +8571,10 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="87" t="s">
+      <c r="A37" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="88"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="23">
         <v>2558166.4406919004</v>
       </c>
@@ -8811,10 +8811,10 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="87" t="s">
+      <c r="A43" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="88"/>
+      <c r="B43" s="84"/>
       <c r="C43" s="23">
         <v>8837.700060000001</v>
       </c>
@@ -9067,10 +9067,10 @@
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="87" t="s">
+      <c r="A49" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="88"/>
+      <c r="B49" s="84"/>
       <c r="C49" s="23">
         <v>458991.44027999998</v>
       </c>
@@ -9323,10 +9323,10 @@
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="87" t="s">
+      <c r="A55" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="88"/>
+      <c r="B55" s="84"/>
       <c r="C55" s="23">
         <v>930442.20066999982</v>
       </c>
@@ -9368,10 +9368,10 @@
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="83" t="s">
+      <c r="A56" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="84"/>
+      <c r="B56" s="88"/>
       <c r="C56" s="26">
         <v>24342339.645408895</v>
       </c>
@@ -9414,17 +9414,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A43:B43"/>
@@ -9433,6 +9422,17 @@
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A55:B55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9445,7 +9445,7 @@
   <dimension ref="A1:J973"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
